--- a/analysis/participant_extractedmetrics/participant340.xlsx
+++ b/analysis/participant_extractedmetrics/participant340.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="73">
   <si>
     <t/>
   </si>
@@ -168,6 +168,12 @@
     <t>postgem</t>
   </si>
   <si>
+    <t xml:space="preserve">pre </t>
+  </si>
+  <si>
+    <t>Respondent ratio (%)</t>
+  </si>
+  <si>
     <t>condboy</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
   </si>
   <si>
     <t>pregem</t>
+  </si>
+  <si>
+    <t>Post</t>
   </si>
   <si>
     <t>condbody</t>
@@ -222,14 +231,14 @@
     <t>var1</t>
   </si>
   <si>
-    <t>Respondent ratio (%)</t>
+    <t xml:space="preserve">post </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -240,6 +249,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,12 +270,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2792,7 +2815,1100 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>125.0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>498.0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>175.0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>83.0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>233.0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>314.0</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4254.94</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2972.28</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7330.03</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2775.75</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3179.25</v>
+      </c>
+      <c r="H31" s="4">
+        <v>38920.38</v>
+      </c>
+      <c r="I31" s="4">
+        <v>27930.46</v>
+      </c>
+      <c r="J31" s="4">
+        <v>138596.3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>55255.14</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12466.0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>33835.42</v>
+      </c>
+      <c r="N31" s="4">
+        <v>21548.34</v>
+      </c>
+      <c r="O31" s="4">
+        <v>28145.48</v>
+      </c>
+      <c r="P31" s="4">
+        <v>64634.5</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>18713.52</v>
+      </c>
+      <c r="R31" s="4">
+        <v>7775.67</v>
+      </c>
+      <c r="S31" s="4">
+        <v>5219.07</v>
+      </c>
+      <c r="T31" s="4">
+        <v>115013.5</v>
+      </c>
+      <c r="U31" s="4">
+        <v>25752.36</v>
+      </c>
+      <c r="V31" s="4">
+        <v>11265.94</v>
+      </c>
+      <c r="W31" s="4">
+        <v>1402.97</v>
+      </c>
+      <c r="X31" s="4">
+        <v>9544.81</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>10684.84</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>5838.99</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>7395.43</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>8443.0</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>8809.93</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>4598.86</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>119318.3</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>2532.56</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>4490.46</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>2425.21</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>652.22</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>4490.93</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>14874.7</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1392.96</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>10039.62</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>939.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H32" s="4">
+        <v>9.48</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>33.76</v>
+      </c>
+      <c r="K32" s="4">
+        <v>13.46</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="M32" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="N32" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="O32" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="P32" s="4">
+        <v>35.79</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>4.56</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="T32" s="4">
+        <v>28.01</v>
+      </c>
+      <c r="U32" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="V32" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="X32" s="4">
+        <v>2.32</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1.12</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>29.06</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4">
+        <v>386.81</v>
+      </c>
+      <c r="C33" s="4">
+        <v>297.23</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="4">
+        <v>333.18</v>
+      </c>
+      <c r="F33" s="4">
+        <v>252.34</v>
+      </c>
+      <c r="G33" s="4">
+        <v>264.94</v>
+      </c>
+      <c r="H33" s="4">
+        <v>311.36</v>
+      </c>
+      <c r="I33" s="4">
+        <v>321.04</v>
+      </c>
+      <c r="J33" s="4">
+        <v>278.31</v>
+      </c>
+      <c r="K33" s="4">
+        <v>315.74</v>
+      </c>
+      <c r="L33" s="4">
+        <v>304.05</v>
+      </c>
+      <c r="M33" s="4">
+        <v>302.1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>303.5</v>
+      </c>
+      <c r="O33" s="4">
+        <v>339.1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>277.4</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>301.83</v>
+      </c>
+      <c r="R33" s="4">
+        <v>311.03</v>
+      </c>
+      <c r="S33" s="4">
+        <v>434.92</v>
+      </c>
+      <c r="T33" s="4">
+        <v>287.53</v>
+      </c>
+      <c r="U33" s="4">
+        <v>296.0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>352.06</v>
+      </c>
+      <c r="W33" s="4">
+        <v>200.42</v>
+      </c>
+      <c r="X33" s="4">
+        <v>280.73</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>305.28</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>278.05</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>462.21</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>402.05</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>352.4</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>255.49</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>379.99</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>506.51</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>374.2</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>346.46</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>217.41</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>374.24</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>330.55</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>464.32</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>313.74</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>313.06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="4">
+        <v>180.16</v>
+      </c>
+      <c r="C34" s="4">
+        <v>203.49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4">
+        <v>172.17</v>
+      </c>
+      <c r="F34" s="4">
+        <v>281.67</v>
+      </c>
+      <c r="G34" s="4">
+        <v>234.8</v>
+      </c>
+      <c r="H34" s="4">
+        <v>172.15</v>
+      </c>
+      <c r="I34" s="4">
+        <v>234.75</v>
+      </c>
+      <c r="J34" s="4">
+        <v>266.04</v>
+      </c>
+      <c r="K34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="L34" s="4">
+        <v>140.82</v>
+      </c>
+      <c r="M34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="N34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="O34" s="4">
+        <v>125.23</v>
+      </c>
+      <c r="P34" s="4">
+        <v>283.77</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>125.23</v>
+      </c>
+      <c r="R34" s="4">
+        <v>203.41</v>
+      </c>
+      <c r="S34" s="4">
+        <v>375.61</v>
+      </c>
+      <c r="T34" s="4">
+        <v>156.4</v>
+      </c>
+      <c r="U34" s="4">
+        <v>109.46</v>
+      </c>
+      <c r="V34" s="4">
+        <v>109.46</v>
+      </c>
+      <c r="W34" s="4">
+        <v>328.68</v>
+      </c>
+      <c r="X34" s="4">
+        <v>172.15</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>125.23</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>439.19</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>125.23</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>140.82</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>219.08</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>668.0</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>109.57</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>610.39</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>172.18</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>171.19</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>172.15</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>328.73</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>172.17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2818,10 +3934,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -2833,22 +3949,22 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>31</v>
@@ -3338,7 +4454,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -3352,10 +4468,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -3367,22 +4483,22 @@
         <v>18</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>31</v>
@@ -3870,7 +4986,689 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="4">
+        <v>178.0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4">
+        <v>867.54</v>
+      </c>
+      <c r="D31" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="4">
+        <v>30081.1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="4">
+        <v>48468.59</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4">
+        <v>21.52</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="4">
+        <v>34.81</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4">
+        <v>173.51</v>
+      </c>
+      <c r="D33" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4">
+        <v>235.01</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="4">
+        <v>272.3</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="4">
+        <v>116.97</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="4">
+        <v>100.14</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3908,28 +5706,28 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -3941,28 +5739,28 @@
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>35</v>
@@ -3982,6 +5780,15 @@
       <c r="AF1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -4078,10 +5885,19 @@
         <v>0</v>
       </c>
       <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1">
         <v>100.0</v>
@@ -4176,6 +5992,15 @@
       <c r="AF3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -4274,6 +6099,15 @@
       <c r="AF4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -4372,6 +6206,15 @@
       <c r="AF5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -4470,6 +6313,15 @@
       <c r="AF6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -4568,6 +6420,15 @@
       <c r="AF7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -4666,6 +6527,15 @@
       <c r="AF8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -4764,10 +6634,19 @@
       <c r="AF9" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -4793,28 +6672,28 @@
         <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>15</v>
@@ -4826,28 +6705,28 @@
         <v>18</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>35</v>
@@ -4867,6 +6746,15 @@
       <c r="AF13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -4963,10 +6851,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>100.0</v>
@@ -5061,6 +6958,15 @@
       <c r="AF15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -5159,6 +7065,15 @@
       <c r="AF16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -5257,6 +7172,15 @@
       <c r="AF17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -5355,6 +7279,15 @@
       <c r="AF18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -5453,6 +7386,15 @@
       <c r="AF19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -5551,6 +7493,15 @@
       <c r="AF20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -5649,8 +7600,907 @@
       <c r="AF21" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="4">
+        <v>136.0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>170.0</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="4">
+        <v>41466.92</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>51660.97</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="4">
+        <v>26.86</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>33.55</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="4">
+        <v>304.9</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>303.89</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1045.03</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>